--- a/phmsa-clean/lng2011toPresent.xlsx
+++ b/phmsa-clean/lng2011toPresent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Pipeline Metrics Reporting\Ongoing Tasks and Work Instructions\Web Update\5-Significant Incident Data Files\SaveExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6756D583-F317-4E64-A36D-B3CB413576FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E466B594-207D-48A5-979A-BE1C57FDFDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="720" windowWidth="19070" windowHeight="10080" activeTab="1" xr2:uid="{15F52BC7-FFFE-4952-BA68-182AF4CCFC06}"/>
+    <workbookView xWindow="130" yWindow="1050" windowWidth="19070" windowHeight="9750" activeTab="1" xr2:uid="{4C221299-0347-4F09-A983-FB006FF27284}"/>
   </bookViews>
   <sheets>
     <sheet name="lng2011toPresentFields" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="1218">
   <si>
     <t>Liquefied Natural Gas (LNG) Facilities Incidents for 2011 - present (PHMSA Form 7100.3 Rev. 9-2019) - Data Dictionary for Flagged Data file</t>
   </si>
@@ -3600,28 +3600,100 @@
     <t>483861.05386490501052</t>
   </si>
   <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t>STILL UNDER INVESTIGATION, CAUSE OF INCIDENT TO BE DETERMINED* (*SUPPLEMENTAL REPORT REQUIRED)</t>
-  </si>
-  <si>
-    <t>JANA RUSSELL</t>
-  </si>
-  <si>
-    <t>COORDINATOR OPERATIONS COMPLIANCE</t>
-  </si>
-  <si>
-    <t>jana.russell@cheniere.com</t>
-  </si>
-  <si>
-    <t>361-977-1271</t>
-  </si>
-  <si>
-    <t>713-375-5595</t>
-  </si>
-  <si>
-    <t>ON 10 FEBRUARY 2024 AT 12:50AM SITE PERSONNEL OBSERVED A GAS AND LIQUID HYDROCARBON RELEASE FROM THE BOG A (00C-2401A) COMPRESSOR S2 VENT WHILE PERFORMING MAINTENANCE TO THE EQUIPMENT. FIELD PERSONNEL COMMUNICATED TO THE CONTROL ROOM AND EVACUATED THE BOG A AREA. NO INJURIES OCCURRED, AND ALL PERSONNEL WERE ACCOUNTED FOR. THERE WAS NO EQUIPMENT OR PROPERTY DAMAGE RESULTING FROM OR AS A CONSEQUENCE OF THE GAS RELEASE. BOG B (00C-2401B) WAS SHUT DOWN AND A CONTROLLED RAMP DOWN OF SHIP LOADING WAS PERFORMED AT THE WEST JETTY. THE FACILITY REDUCED RATES FROM TRAINS 1/2/3. TEMPORARY GAS MONITORS WERE DEPLOYED IN THE AREA TO ESTABLISH AN EXCLUSION ZONE. THE BOG A SYSTEM WAS THEN CONNECTED VIA TEMPORARY HOSE TO THE FLARE LINE TO DEPRESSURE AND CLEAR ANY RESIDUAL HYDROCARBONS. THE EXCLUSION ZONE WAS CLEARED AT 02:30AM. INCIDENT INVESTIGATION IS IN PROGRESS, AND A FINAL INVESTIGATION REPORT IS PENDING.    A NRC TELEPHONIC REPORT WAS FILED NRC REPORT # 1391284  OTHER NRC REPORT #1391385 FOR 48 HOUR REPORT</t>
+    <t>MARINE FLARE NOT UTILIZED FOR LOADING WARM VESSEL WITH HIGH C2+ CONCENTRATION.</t>
+  </si>
+  <si>
+    <t>CRAIG KONDOFF</t>
+  </si>
+  <si>
+    <t>craig.kondoff@cheniere.com</t>
+  </si>
+  <si>
+    <t>361-977-1373</t>
+  </si>
+  <si>
+    <t>JAMES MCKEIVIER</t>
+  </si>
+  <si>
+    <t>DIRECTOR HSE REGULATORY COMPLIANCE</t>
+  </si>
+  <si>
+    <t>713-375-5204</t>
+  </si>
+  <si>
+    <t>james.mckeivier@cheniere.com</t>
+  </si>
+  <si>
+    <t>WHILE PERFORMING MAINTENANCE TO THE BOIL-OFF GAS COMPRESSOR A (BOG A) 2/10/2024 AT 12:50 AM SITE PERSONNEL OBSERVED A GAS AND LIQUID HYDROCARBON RELEASE FROM THE BOG A S2 VENT. THE BOG A S2 VENT IS A COMPRESSOR SEAL ATMOSPHERIC VENT. FIELD PERSONNEL COMMUNICATED TO THE CONTROL ROOM AND EVACUATED THE BOG A AREA. NO INJURIES OCCURRED, AND ALL PERSONNEL WERE ACCOUNTED FOR. THERE WAS NO EQUIPMENT OR PROPERTY DAMAGE RESULTING FROM OR AS A CONSEQUENCE OF THE GAS RELEASE. THE BOG A SYSTEM WAS THEN CONNECTED VIA TEMPORARY HOSE TO THE FLARE LINE TO DEPRESSURE AND CLEAR ANY RESIDUAL HYDROCARBONS.    PRIOR TO THE EVENT, ON 02/05/2024, A WARM LIQUEFIED NATURAL GAS (LNG) VESSEL WAS REQUIRED TO BE COOLED FOR LNG LOADING. THE RESULTANT "HEAVIER" VAPOR (CONTAINING BUTANE, PROPANE, PENTANES AND C6+ COMPONENTS) FROM THE VESSEL COOLDOWN WAS ROUTED TO THE LNG TANKS AND BOIL-OFF GAS (BOG) COMPRESSORS. AS THE LNG TANKS CONTINUED RECEIVING WARM VAPOR, BOG TEMPERATURES IN LNG TANK C STARTED TO RISE. THE MIXING OF WARMER BOG FROM TANK C AND COLDER BOG FROM TANKS A AND B RESULTED IN VAPOR CONDENSATION AT THE BOG SUCTION LINE, CAUSING LIQUID ACCUMULATION IN THE BOG A SUCTION PIPING. LIQUID REMAINED IN BOG A SUCTION PIPING UNTIL THE ATTEMPTED STARTUP ON 02/09/2024, WHICH HAD BEEN SHUT DOWN SINCE 01/28/2024 FOR MAINTENANCE PURPOSES, BEFORE VAPORIZING AND RELEASING TO THE ATMOSPHERE. STARTUP PROCEDURES WERE FOLLOWED BUT THEY DID NOT ACCOUNT FOR THE POTENTIAL PRESENCE OF LIQUID IN THE GAS LINE. INITIAL CORRECTIVE ACTION WAS TO MODIFY THE LOADING PROCEDURE TO SEND WARM BOG FROM VESSEL COOLDOWNS INITIALLY.    AN NRC TELEPHONIC REPORT WAS FILED UNDER NRC REPORT # 1391284.  NRC REPORT #1391385 WAS FILED FOR 48-HOUR REPORT.</t>
+  </si>
+  <si>
+    <t>LNG SENDOUT PUMP WAS SHUT DOWN BUT NOT THE LNG FACILITY.</t>
+  </si>
+  <si>
+    <t>1960.52528111976</t>
+  </si>
+  <si>
+    <t>ONE LNG TANK PSV PILOT DIAPHRAGM WAS REPLACED AFTER INSPECTION.</t>
+  </si>
+  <si>
+    <t>3807</t>
+  </si>
+  <si>
+    <t>2177.612229019904843100189035916824196597</t>
+  </si>
+  <si>
+    <t>3767.52528111976</t>
+  </si>
+  <si>
+    <t>IN OUR STANDARD OPERATING PROCEDURES (SOP) FOR TYPICAL LNG UNLOADING PROCESSES, AS DETAILED IN LNGT-011, IT IS SPECIFIED THAT BEFORE THE 32' UNLOADING LINE RECIRCULATION PROCESS, THE 4' 1LNG-NV-0128 TOP FILL BYPASS VALVE SHOULD BE OPEN WHILE THE BOTTOM FILLING VALVE 1LNG-NV-104 SHOULD BE CLOSED. OUR CURRENT SOPS DO NOT CONTEMPLATE THIS UNLOADING SCENARIO, WHERE THE PROCESS WAS INTERRUPTED FOR MORE THAN 24 HOURS BEFORE RESUMING AND COMPLETING THE UNLOADING.</t>
+  </si>
+  <si>
+    <t>MELVIN MENENDEZ-FIGUEROA</t>
+  </si>
+  <si>
+    <t>INTERIM ENVIRONMENTAL COMPLIANCE MANAGER</t>
+  </si>
+  <si>
+    <t>melvin.menendez@ecoelectrica.com</t>
+  </si>
+  <si>
+    <t>787-836-2740</t>
+  </si>
+  <si>
+    <t>787-836-2260</t>
+  </si>
+  <si>
+    <t>7878362740</t>
+  </si>
+  <si>
+    <t>ON MONDAY, JULY 15, 2024, THE FACILITY WAS IN VAPORIZER SENDOUT AND MARINE RECIRCULATION MODE. VAPORIZED LNG WAS BEING SENT TO THE POWER PLANTS, WITH NO ACTIVE LNG CARGO UNLOADING. AN LNG VESSEL WAS DOCKED AT OUR TERMINAL, AWAITING THE TANK LEVEL TO LOWER TO ALLOW FOR THE RESTART OF TRANSFER OPERATIONS ON JULY 16, 2024. TRANSFER OPERATIONS FROM THE SHIP STOPPED AT 4:55 AM ON JULY 15TH, AND RECIRCULATION FROM THE TANK THROUGH THE MARINE LINE STARTED AT 8:16 AM ON JULY 15TH. TWO BOIL-OFF GAS (BOG) COMPRESSORS (P-101 A AND P-101B) AND TWO LNG SENDOUT PUMPS (P-101B AND P-101C) WERE IN SERVICE, SUPPLYING NATURAL GAS TO THE ECOELÉCTRICA COMBINED CYCLE COGENERATION PLANT, AND GENERA PR COSTA SUR GENERATING UNITS. ALSO, LNG WAS BEING SUPPLIED TO THE TRUCK LOADING FACILITY. RECIRCULATION FOR THE MARINE TRANSFER LINE WAS PROVIDED FROM A SLIP STREAM OF THE SENDOUT TO VAPORIZER LINE (VIA FV-0234).    AT 11:56 HOURS ON JULY 15, 2024, THE LNG STORAGE TANK PRESSURE STARTED TO INCREASE, REACHING A MAXIMUM OF 2.01 PSI AT 12:03 HOURS. AT THAT TIME, THE THREE (3) MAIN PRESSURE SAFETY VALVES 1LNG-PSV-113A, B &amp; C AUTOMATICALLY OPENED TO RELIEVE THE OVERPRESSURE IN THE LNG STORAGE TANK, RELEASING NATURAL GAS TO THE ATMOSPHERE. ONE PRESSURE SAFETY VALVE REMAINED OPEN FOR 5 MINUTES, ANOTHER FOR 4 MINUTES AND THE THIRD FOR 2 MINUTES, OPERATING AT THEIR EXPECTED CAPACITY. HOWEVER, PSV-0113A DID NOT CLOSE PROPERLY AND CONTINUED WITH A SMALL LEAK FOR AN ADDITIONAL 16 MINUTES. THE INCREASE IN PRESSURE TRIGGERED THE NEED TO MANUALLY OPEN (100%) TANK PRESSURE CONTROL TO THE FLARE VALVE 1LNG-NV-0109A AND START TWO STANDBY BOG COMPRESSORS (P-106C &amp; D).    THE INCREASE IN TANK PRESSURE OCCURRED DUE TO THE 32" UNLOADING LINE RECIRCULATING PROCESS SIMULTANEOUSLY THROUGH THE LNG TANK 4" TOP FILL BYPASS VALVE (1LNG-NV-0128) AND THE 32'' UNLOADING BOTTOM FILLING VALVE (1LNG-NV-0104). LNG IN THE 32" UNLOADING WAS NOT RECIRCULATED FOR 3.35 HOURS AFTER THE UNLOADING PROCESS WAS STOPPED. THE HIGHEST TEMPERATURE RECORDED IN THE 32" UNLOADING LINE WAS -230°F. WHEN RECIRCULATION WAS REESTABLISHED, THE "WARM" LNG WAS ROUTED THROUGH VALVE 1LNG-NV-104 (32 INCH) TO THE BOTTOM OF THE LNG TANK INSTEAD OF VALVE 1LNG-NV-0128 (4 INCH) WHICH DISCHARGES TO THE TOP OF THE LNG TANK.    IN OUR STANDARD OPERATING PROCEDURES (SOP) FOR TYPICAL LNG UNLOADING PROCESSES, AS DETAILED IN LNGT-011-LNG SHIP UNLOADING SOP AND EVENTS CHECKLIST (EVENT #81), IT IS SPECIFIED THAT BEFORE THE 32" UNLOADING LINE RECIRCULATION PROCESS, THE 4" 1LNG-NV-0128 TOP FILL BYPASS VALVE SHOULD BE OPEN WHILE THE BOTTOM FILLING VALVE 1LNG-NV-104 SHOULD BE CLOSED. THIS PROCEDURE ENSURES A REDUCED FLOW TO THE TOP OF THE TANK.    HOWEVER, THE EVENT INVOLVED AN ABNORMAL UNLOADING SCENARIO, WHERE THE PROCESS WAS INTERRUPTED FOR MORE THAN 24 HOURS BEFORE RESUMING AND COMPLETING THE UNLOADING. OUR CURRENT SOPS DO NOT CONTEMPLATE THIS UNLOADING SCENARIO. DURING THE DISCHARGE, THE INSTRUCTION PROVIDED WAS TO LEAVE THE UNLOADING ARMS CONNECTED AND CONTINUE THE PROCESS AS ESTABLISHED BY THE PROCEDURE LNGT-011.    AS PART OF THE UNLOADING PLANNING PROCESS, ECOELÉCTRICA STRATEGICALLY PLANNED TO DISCHARGE AT A REDUCED RATE TO PREVENT INTERRUPTIONS AND ENSURE COMPLIANCE WITH THE FERC 91' LIQUID LEVEL LIMIT. THIS PLAN ASSUMED THAT LNG TANK END USERS WOULD CONSUME AN ESTIMATED QUANTITY. HOWEVER, DUE TO ONE END USER'S INABILITY TO CONSUME THE EXPECTED AMOUNT, THE SITUATION REQUIRED STOPPING THE TRANSFER OPERATION.</t>
+  </si>
+  <si>
+    <t>REXBURG SATELLITE LNG FACILITY</t>
+  </si>
+  <si>
+    <t>REXBURG LNG</t>
+  </si>
+  <si>
+    <t>THE FILL/DRAIN VALVE ON THE LNG TRAILER.</t>
+  </si>
+  <si>
+    <t>2425</t>
+  </si>
+  <si>
+    <t>2377.136903357709</t>
+  </si>
+  <si>
+    <t>6187</t>
+  </si>
+  <si>
+    <t>3813.417091391738592013232514177693761815</t>
+  </si>
+  <si>
+    <t>6139.136903357709</t>
+  </si>
+  <si>
+    <t>ON JULY 16, 2024, AT 9:30AM, KENAN ADVANTAGE GROUP TRUCK AND LNG TRAILER ARRIVED AT THE REXBURG LNG FACILITY. IGC VAPORIZATION TECHNICIANS (VAP TECH) BEGAN PREPARATION FOR OFFLOAD. THE LNG TRAILER PRESSURE WAS INCREASED TO APPROXIMATELY 60 PSIG, THE TRANSFER HOSE WAS CONNECTED TO THE LNG TRAILER, THE PURGE VALVE AT THE TRUCK OFFLOADING SKID WAS OPENED AND THE HOSE WAS PURGED.     AT 10:10AM, THE VAP TECH SLIGHTLY OPENED THE LNG TRAILER FILL AND DRAIN VALVE. VAPOR AND LNG BEGAN TO RELEASE FROM THE VENT STACK AT THE BACK OF THE LNG TRAILER. THE VAP TECH IMMEDIATELY LEFT THE HAZARDOUS AREA AND ATTEMPTED TO RELIEVE PRESSURE FROM THE LNG TRAILER, AS IT WAS INITIALLY BELIEVED THE LNG WAS BEING RELEASED FROM THE LNG TRAILER RELIEF VALVE. THE EMERGENCY SHUTDOWN (ESD) AT THE BACK OF THE LNG TRAILER WAS IN THE HAZARDOUS AREA AND NOT ACCESSIBLE.     AT 10:15AM, A LOCAL METHANE DETECTOR AT THE OFFLOADING SKID ALARMED AND INITIATED AN EMERGENCY SHUTDOWN.    AT 10:35AM, THE VAP TECH PUSHED A SECONDARY ESD, LOCATED NEAR THE FRONT OF THE TRAILER, TO CLOSE THE FIRE BLOCKS ON THE LNG TRAILER. THE FIRE BLOCKS DID NOT SHUT OFF AND STOP THE RELEASE OF LNG RESULTING IN THE LNG FLOWING INTO THE CONCRETE SPILL PIT AT THE FACILITY.     AT 10:45AM, THE FIRE DEPARTMENT ARRIVED ONSITE, AND EVACUATIONS BEGAN AT 11:30AM. SEVENTEEN (17) RESIDENTIAL BUILDINGS (APPROXIMATELY 30 PEOPLE) WERE EVACUATED. THE VAP TECHS CONTINUED TO MONITOR THE ATMOSPHERE WITH GAS DETECTORS FROM A SAFE DISTANCE.     AT 2:54PM, THE AREA WAS DEEMED SAFE, AND THE VAP TECHS SHUT IN THE SYSTEM.    AT 3:30PM, THE EVACUATIONS WERE LIFTED.      AT 4:47PM, THE REXBURG LNG FACILITY WAS RETURNED TO NORMAL OPERATION.     UPON INCIDENT INVESTIGATION, IT WAS DISCOVERED WHEN THE FILL AND DRAIN VALVE WAS SLIGHTLY OPENED, THE LNG FLOWED THROUGH THE FILL LINE BLEED VALVE ON THE LNG TRAILER, INTO THE VENT PIPING, AND SPRAYED OUT OF THE VENT STACK. THE FILL LINE BLEED SHOULD HAVE BEEN VERIFIED TO BE CLOSED BEFORE OPENING THE FILL AND DRAIN VALVE. IT WAS ALSO DISCOVERED THAT THE SECONDARY FAILURE OF THE FIRE BLOCK VALVE NOT CLOSING CAUSED THE LNG TO CONTINUE TO RELEASE INTO THE CONCRETE SPILL PIT.    AUGUST 22, 2024, UPDATED PART A QUESTION 7 INCIDENT RESULTED FROM: UNINTENTIONAL RELEASE OF COMMODITY AND EMERGENCY SHUTDOWN. UPDATED PART A QUESTION 11 ESTIMATED VOLUME OF LIQUID SPILLED TO THE GROUND (BARRELS): 212.74. PLEASE NOTE, THERE WAS NO GROUND CONTAMINATION. THE LNG WAS CONTAINED IN THE SPILL PIT AND DID NOT ABSORB INTO THE SOIL.</t>
   </si>
 </sst>
 </file>
@@ -3692,7 +3764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3729,6 +3801,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4053,7 +4126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB00F2-4AFD-4BA1-8724-B24E6840F145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379FB4F-0336-4067-97BD-34DCB9779345}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:D225"/>
   <sheetViews>
@@ -7224,8 +7297,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22E4B90-E414-4367-9550-F2C61C140AD8}">
-  <dimension ref="A1:HO43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25826C6-A364-4341-A3BD-6BE0B4083340}">
+  <dimension ref="A1:HO45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -7247,7 +7320,7 @@
     <col min="17" max="17" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="12"/>
     <col min="29" max="31" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.7265625" style="12"/>
@@ -7957,7 +8030,7 @@
     </row>
     <row r="2" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>466</v>
@@ -8238,7 +8311,7 @@
     </row>
     <row r="3" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>466</v>
@@ -8498,7 +8571,7 @@
     </row>
     <row r="4" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>473</v>
@@ -8785,7 +8858,7 @@
     </row>
     <row r="5" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>466</v>
@@ -9063,7 +9136,7 @@
     </row>
     <row r="6" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>473</v>
@@ -9332,7 +9405,7 @@
     </row>
     <row r="7" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>466</v>
@@ -9604,7 +9677,7 @@
     </row>
     <row r="8" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>466</v>
@@ -9861,7 +9934,7 @@
     </row>
     <row r="9" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>466</v>
@@ -10133,7 +10206,7 @@
     </row>
     <row r="10" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>466</v>
@@ -10399,7 +10472,7 @@
     </row>
     <row r="11" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>473</v>
@@ -10659,7 +10732,7 @@
     </row>
     <row r="12" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>473</v>
@@ -10937,7 +11010,7 @@
     </row>
     <row r="13" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>466</v>
@@ -11212,7 +11285,7 @@
     </row>
     <row r="14" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>473</v>
@@ -11493,7 +11566,7 @@
     </row>
     <row r="15" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>466</v>
@@ -11756,7 +11829,7 @@
     </row>
     <row r="16" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>466</v>
@@ -12025,7 +12098,7 @@
     </row>
     <row r="17" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>466</v>
@@ -12297,7 +12370,7 @@
     </row>
     <row r="18" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>466</v>
@@ -12563,7 +12636,7 @@
     </row>
     <row r="19" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>473</v>
@@ -12832,7 +12905,7 @@
     </row>
     <row r="20" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>473</v>
@@ -13107,7 +13180,7 @@
     </row>
     <row r="21" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>466</v>
@@ -13373,7 +13446,7 @@
     </row>
     <row r="22" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>473</v>
@@ -13642,7 +13715,7 @@
     </row>
     <row r="23" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>473</v>
@@ -13938,7 +14011,7 @@
     </row>
     <row r="24" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>466</v>
@@ -14234,7 +14307,7 @@
     </row>
     <row r="25" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>466</v>
@@ -14518,7 +14591,7 @@
     </row>
     <row r="26" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>473</v>
@@ -14796,7 +14869,7 @@
     </row>
     <row r="27" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>466</v>
@@ -15083,7 +15156,7 @@
     </row>
     <row r="28" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>466</v>
@@ -15370,7 +15443,7 @@
     </row>
     <row r="29" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>466</v>
@@ -15651,7 +15724,7 @@
     </row>
     <row r="30" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>466</v>
@@ -15941,7 +16014,7 @@
     </row>
     <row r="31" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>466</v>
@@ -16219,7 +16292,7 @@
     </row>
     <row r="32" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>466</v>
@@ -16518,7 +16591,7 @@
     </row>
     <row r="33" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>466</v>
@@ -16802,7 +16875,7 @@
     </row>
     <row r="34" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>473</v>
@@ -17116,7 +17189,7 @@
     </row>
     <row r="35" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>466</v>
@@ -17400,7 +17473,7 @@
     </row>
     <row r="36" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>466</v>
@@ -17684,7 +17757,7 @@
     </row>
     <row r="37" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>466</v>
@@ -17971,7 +18044,7 @@
     </row>
     <row r="38" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>473</v>
@@ -18261,7 +18334,7 @@
     </row>
     <row r="39" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>473</v>
@@ -18575,7 +18648,7 @@
     </row>
     <row r="40" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>466</v>
@@ -18871,7 +18944,7 @@
     </row>
     <row r="41" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>466</v>
@@ -19152,7 +19225,7 @@
     </row>
     <row r="42" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>466</v>
@@ -19439,7 +19512,7 @@
     </row>
     <row r="43" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>45471.44734953704</v>
+        <v>45534.492673611108</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>473</v>
@@ -19451,13 +19524,13 @@
         <v>20240003</v>
       </c>
       <c r="E43" s="12">
-        <v>39344</v>
+        <v>39912</v>
       </c>
       <c r="F43" s="14">
         <v>45362.585358796299</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>1060</v>
+        <v>467</v>
       </c>
       <c r="H43" s="12">
         <v>39501</v>
@@ -19682,49 +19755,644 @@
         <v>711</v>
       </c>
       <c r="DR43" s="12" t="s">
-        <v>1186</v>
+        <v>712</v>
       </c>
       <c r="DS43" s="12" t="s">
         <v>713</v>
       </c>
       <c r="DT43" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="FI43" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="FJ43" s="12" t="s">
         <v>1186</v>
       </c>
-      <c r="FI43" s="12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="FK43" s="12" t="s">
+      <c r="HB43" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE43" s="12" t="s">
         <v>1187</v>
       </c>
-      <c r="HE43" s="12" t="s">
+      <c r="HF43" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="HG43" s="12" t="s">
         <v>1188</v>
       </c>
-      <c r="HF43" s="12" t="s">
+      <c r="HH43" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="HG43" s="12" t="s">
+      <c r="HJ43" s="14">
+        <v>45520</v>
+      </c>
+      <c r="HK43" s="12" t="s">
         <v>1190</v>
       </c>
-      <c r="HH43" s="13" t="s">
+      <c r="HL43" s="12" t="s">
         <v>1191</v>
-      </c>
-      <c r="HJ43" s="14">
-        <v>45370</v>
-      </c>
-      <c r="HK43" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="HL43" s="12" t="s">
-        <v>741</v>
       </c>
       <c r="HM43" s="13" t="s">
         <v>1192</v>
       </c>
       <c r="HN43" s="12" t="s">
-        <v>743</v>
+        <v>1193</v>
       </c>
       <c r="HO43" s="12" t="s">
-        <v>1193</v>
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>45534.492673611108</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D44" s="12">
+        <v>20240004</v>
+      </c>
+      <c r="E44" s="12">
+        <v>39891</v>
+      </c>
+      <c r="F44" s="14">
+        <v>45517.493113425924</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H44" s="12">
+        <v>32561</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="N44" s="15">
+        <v>45488.500694444447</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>45488.572222222225</v>
+      </c>
+      <c r="R44" s="12">
+        <v>2024</v>
+      </c>
+      <c r="S44" s="12">
+        <v>1404839</v>
+      </c>
+      <c r="T44" s="15">
+        <v>45488.604166666664</v>
+      </c>
+      <c r="U44" s="16">
+        <v>14051701405184</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="W44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA44" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>206</v>
+      </c>
+      <c r="AD44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AK44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AS44" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AW44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF44" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="BG44" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="BK44" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="BL44" s="12">
+        <v>75</v>
+      </c>
+      <c r="BM44" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN44" s="12">
+        <v>279</v>
+      </c>
+      <c r="BQ44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="BS44" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="BT44" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU44" s="12">
+        <v>856980</v>
+      </c>
+      <c r="BV44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CD44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CE44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CG44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CI44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CN44" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="CP44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CQ44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CR44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CS44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CT44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CU44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CV44" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="CW44" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="CX44" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="CY44" s="12">
+        <v>1807</v>
+      </c>
+      <c r="CZ44" s="12">
+        <v>1807</v>
+      </c>
+      <c r="DA44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DB44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DC44" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="DD44" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="DE44" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="DF44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DG44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DH44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DI44" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="DK44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="DN44" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="DQ44" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="DR44" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="DS44" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="DT44" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="FB44" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="FC44" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="FD44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="FF44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE44" s="12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="HF44" s="12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="HG44" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="HH44" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="HI44" s="13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="HJ44" s="14">
+        <v>45517</v>
+      </c>
+      <c r="HK44" s="12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="HL44" s="12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="HM44" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="HN44" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="HO44" s="12" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>45534.492673611108</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D45" s="12">
+        <v>20240005</v>
+      </c>
+      <c r="E45" s="12">
+        <v>39919</v>
+      </c>
+      <c r="F45" s="14">
+        <v>45519.675439814811</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="H45" s="12">
+        <v>8160</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="N45" s="15">
+        <v>45489.427083333336</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>45489.427083333336</v>
+      </c>
+      <c r="R45" s="12">
+        <v>2024</v>
+      </c>
+      <c r="S45" s="12">
+        <v>1404942</v>
+      </c>
+      <c r="T45" s="15">
+        <v>45489.48333333333</v>
+      </c>
+      <c r="U45" s="12">
+        <v>1405150</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="W45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA45" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>744.5</v>
+      </c>
+      <c r="AD45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="12">
+        <v>212.74</v>
+      </c>
+      <c r="AF45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AK45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT45" s="15">
+        <v>45489.427083333336</v>
+      </c>
+      <c r="AU45" s="15">
+        <v>45489.699305555558</v>
+      </c>
+      <c r="AW45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ45" s="12">
+        <v>30</v>
+      </c>
+      <c r="BA45" s="12">
+        <v>3</v>
+      </c>
+      <c r="BB45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="12">
+        <v>17</v>
+      </c>
+      <c r="BE45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF45" s="12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="BG45" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="BH45" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="BK45" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="BL45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="BS45" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="BT45" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU45" s="12">
+        <v>1079</v>
+      </c>
+      <c r="BX45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CG45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CI45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CN45" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="CO45" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="CP45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CQ45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CR45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CS45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CT45" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="CU45" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="CV45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CW45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CY45" s="12">
+        <v>3762</v>
+      </c>
+      <c r="CZ45" s="12">
+        <v>3762</v>
+      </c>
+      <c r="DA45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DB45" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DC45" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="DD45" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="DE45" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="DF45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DG45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DH45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DI45" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="DK45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DL45" s="12">
+        <v>2</v>
+      </c>
+      <c r="DM45" s="12">
+        <v>0</v>
+      </c>
+      <c r="DN45" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="DQ45" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="DR45" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="DS45" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="DT45" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="FB45" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="FF45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="GV45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE45" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="HG45" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="HH45" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="HJ45" s="14">
+        <v>45526</v>
+      </c>
+      <c r="HK45" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="HM45" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="HN45" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="HO45" s="12" t="s">
+        <v>1217</v>
       </c>
     </row>
   </sheetData>

--- a/phmsa-clean/lng2011toPresent.xlsx
+++ b/phmsa-clean/lng2011toPresent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Pipeline Metrics Reporting\Ongoing Tasks and Work Instructions\Web Update\5-Significant Incident Data Files\SaveExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E466B594-207D-48A5-979A-BE1C57FDFDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AE6F5F-3F5F-4CA7-B00F-BDCA241F383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="1050" windowWidth="19070" windowHeight="9750" activeTab="1" xr2:uid="{4C221299-0347-4F09-A983-FB006FF27284}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="18380" windowHeight="9750" activeTab="1" xr2:uid="{1257DFA6-D18B-4509-B377-1B1D5B4973D3}"/>
   </bookViews>
   <sheets>
     <sheet name="lng2011toPresentFields" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4038" uniqueCount="1238">
   <si>
     <t>Liquefied Natural Gas (LNG) Facilities Incidents for 2011 - present (PHMSA Form 7100.3 Rev. 9-2019) - Data Dictionary for Flagged Data file</t>
   </si>
@@ -3534,99 +3534,99 @@
     <t>ON JANUARY 14TH, 2024, THE ESTHERVILLE LNG PEAK SHAVING PLANT LOCATED IN ESTHERVILLE, IA WENT INTO EMERGENCY SHUT DOWN (ESD).  THE ESD WAS DUE TO EXTREME WINTER TEMPERATURES (-22 DEGREES FAHRENHEIT) AND THE LACK OF NATURAL GAS FLOW THROUGH THE SYSTEM.  THERE WAS NO DEMAND FOR LNG VAPORIZATION WHICH ALLOWED LIQUID NATURAL GAS TO REACH THE SENSOR THAT PREVENTS GAS FROM ENTERING THE GAS FIRED VAPORIZER IN THE EVENT THE SUPPLY GAS IS TOO COLD, TRIGGERING THE ESD AT 2:19AM. THE SYSTEM WORKED AS DESIGNED, THERE WAS NO RELEASE OF NATURAL GAS, AND OPERATION WAS RESTORED AT 4:12AM.</t>
   </si>
   <si>
+    <t>NORTHERN INDIANA PUBLIC SERVICE CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801 E 86TH AVENUE </t>
+  </si>
+  <si>
+    <t>MERRILLVILLE</t>
+  </si>
+  <si>
+    <t>46410</t>
+  </si>
+  <si>
+    <t>LAPORTE LNG PLANT</t>
+  </si>
+  <si>
+    <t>84524</t>
+  </si>
+  <si>
+    <t>35712.169741697423524</t>
+  </si>
+  <si>
+    <t>INVESTIGATION IS ONGOING TO DETERMINE CAUSE.</t>
+  </si>
+  <si>
+    <t>JOHNESE MCKINNEY</t>
+  </si>
+  <si>
+    <t>MGR OPERATIONS COMPLIANCE</t>
+  </si>
+  <si>
+    <t>johnesemckinney@nisource.com</t>
+  </si>
+  <si>
+    <t>2197131771</t>
+  </si>
+  <si>
+    <t>DURING A ROUTINE SEND-OUT TEST ON 12/19/2023, A SMALL FIRE OCCURRED INVOLVING THE UNIT 2B VAPORIZER.  THE FIRE TRIGGERED THE FIRE SUPPRESSION SYSTEM WHICH TRIGGERED THE EMERGENCY SHUTDOWN OF THE LNG FACILITY.  THE DAMAGE TO THE EQUIPMENT WAS MINIMAL.  NO INJURIES, LOSS OF LNG, OR GAS LEAK OCCURRED. CURRENTLY UNIT 2B IS LOCKED OUT WHILE THE CAUSE OF THE FIRE IS INVESTIGATED.  THE FIRE SUPPRESSION SYSTEM HAS BEEN RESTORED AND THE LNG FACILITY IS BACK ONLINE WITH THE EXCEPTION OF UNIT 2B. NIPSCO WILL PROVIDE AN UPDATE IN 30 DAYS OR WHEN THE INVESTIGATION IS COMPLETE, WHICHEVER HAPPENS FIRST.    INVESTIGATION OF THE INCIDENT FOUND NO SINGULAR CONTRIBUTING FACTOR AS THE SOURCE OF IGNITION. ACTIONS WERE TAKEN TO ELIMINATE THE POSSIBILITY OF FUTURE OCCURRENCE BY REPLACING AND ADJUSTING THE IGNITOR ROD AND UPDATING THE PURGE AIR CONNECTIONS TO A FLAME-RESISTANT MATERIAL. THE UNIT IS BACK ONLINE AND OPERATING NORMAL.</t>
+  </si>
+  <si>
+    <t>BUTANE/HYDROCARBONS</t>
+  </si>
+  <si>
+    <t>SEE NARRATIVE IN PART G OF THIS REPORT.</t>
+  </si>
+  <si>
+    <t>Corpus Christi Liquefaction, LLC.</t>
+  </si>
+  <si>
+    <t>493579</t>
+  </si>
+  <si>
+    <t>483837.05386490501052</t>
+  </si>
+  <si>
+    <t>493603</t>
+  </si>
+  <si>
+    <t>204443.539304293817618429111531190926276</t>
+  </si>
+  <si>
+    <t>483861.05386490501052</t>
+  </si>
+  <si>
+    <t>MARINE FLARE NOT UTILIZED FOR LOADING WARM VESSEL WITH HIGH C2+ CONCENTRATION.</t>
+  </si>
+  <si>
+    <t>CRAIG KONDOFF</t>
+  </si>
+  <si>
+    <t>craig.kondoff@cheniere.com</t>
+  </si>
+  <si>
+    <t>361-977-1373</t>
+  </si>
+  <si>
+    <t>JAMES MCKEIVIER</t>
+  </si>
+  <si>
+    <t>DIRECTOR HSE REGULATORY COMPLIANCE</t>
+  </si>
+  <si>
+    <t>713-375-5204</t>
+  </si>
+  <si>
+    <t>james.mckeivier@cheniere.com</t>
+  </si>
+  <si>
+    <t>WHILE PERFORMING MAINTENANCE TO THE BOIL-OFF GAS COMPRESSOR A (BOG A) 2/10/2024 AT 12:50 AM SITE PERSONNEL OBSERVED A GAS AND LIQUID HYDROCARBON RELEASE FROM THE BOG A S2 VENT. THE BOG A S2 VENT IS A COMPRESSOR SEAL ATMOSPHERIC VENT. FIELD PERSONNEL COMMUNICATED TO THE CONTROL ROOM AND EVACUATED THE BOG A AREA. NO INJURIES OCCURRED, AND ALL PERSONNEL WERE ACCOUNTED FOR. THERE WAS NO EQUIPMENT OR PROPERTY DAMAGE RESULTING FROM OR AS A CONSEQUENCE OF THE GAS RELEASE. THE BOG A SYSTEM WAS THEN CONNECTED VIA TEMPORARY HOSE TO THE FLARE LINE TO DEPRESSURE AND CLEAR ANY RESIDUAL HYDROCARBONS.    PRIOR TO THE EVENT, ON 02/05/2024, A WARM LIQUEFIED NATURAL GAS (LNG) VESSEL WAS REQUIRED TO BE COOLED FOR LNG LOADING. THE RESULTANT "HEAVIER" VAPOR (CONTAINING BUTANE, PROPANE, PENTANES AND C6+ COMPONENTS) FROM THE VESSEL COOLDOWN WAS ROUTED TO THE LNG TANKS AND BOIL-OFF GAS (BOG) COMPRESSORS. AS THE LNG TANKS CONTINUED RECEIVING WARM VAPOR, BOG TEMPERATURES IN LNG TANK C STARTED TO RISE. THE MIXING OF WARMER BOG FROM TANK C AND COLDER BOG FROM TANKS A AND B RESULTED IN VAPOR CONDENSATION AT THE BOG SUCTION LINE, CAUSING LIQUID ACCUMULATION IN THE BOG A SUCTION PIPING. LIQUID REMAINED IN BOG A SUCTION PIPING UNTIL THE ATTEMPTED STARTUP ON 02/09/2024, WHICH HAD BEEN SHUT DOWN SINCE 01/28/2024 FOR MAINTENANCE PURPOSES, BEFORE VAPORIZING AND RELEASING TO THE ATMOSPHERE. STARTUP PROCEDURES WERE FOLLOWED BUT THEY DID NOT ACCOUNT FOR THE POTENTIAL PRESENCE OF LIQUID IN THE GAS LINE. INITIAL CORRECTIVE ACTION WAS TO MODIFY THE LOADING PROCEDURE TO SEND WARM BOG FROM VESSEL COOLDOWNS INITIALLY.    AN NRC TELEPHONIC REPORT WAS FILED UNDER NRC REPORT # 1391284.  NRC REPORT #1391385 WAS FILED FOR 48-HOUR REPORT.</t>
+  </si>
+  <si>
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>NORTHERN INDIANA PUBLIC SERVICE CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801 E 86TH AVENUE </t>
-  </si>
-  <si>
-    <t>MERRILLVILLE</t>
-  </si>
-  <si>
-    <t>46410</t>
-  </si>
-  <si>
-    <t>LAPORTE LNG PLANT</t>
-  </si>
-  <si>
-    <t>84524</t>
-  </si>
-  <si>
-    <t>35712.169741697423524</t>
-  </si>
-  <si>
-    <t>INVESTIGATION IS ONGOING TO DETERMINE CAUSE.</t>
-  </si>
-  <si>
-    <t>JOHNESE MCKINNEY</t>
-  </si>
-  <si>
-    <t>MGR OPERATIONS COMPLIANCE</t>
-  </si>
-  <si>
-    <t>johnesemckinney@nisource.com</t>
-  </si>
-  <si>
-    <t>2197131771</t>
-  </si>
-  <si>
-    <t>DURING A ROUTINE SEND-OUT TEST ON 12/19/2023, A SMALL FIRE OCCURRED INVOLVING THE UNIT 2B VAPORIZER.  THE FIRE TRIGGERED THE FIRE SUPPRESSION SYSTEM WHICH TRIGGERED THE EMERGENCY SHUTDOWN OF THE LNG FACILITY.  THE DAMAGE TO THE EQUIPMENT WAS MINIMAL.  NO INJURIES, LOSS OF LNG, OR GAS LEAK OCCURRED. CURRENTLY UNIT 2B IS LOCKED OUT WHILE THE CAUSE OF THE FIRE IS INVESTIGATED.  THE FIRE SUPPRESSION SYSTEM HAS BEEN RESTORED AND THE LNG FACILITY IS BACK ONLINE WITH THE EXCEPTION OF UNIT 2B. NIPSCO WILL PROVIDE AN UPDATE IN 30 DAYS OR WHEN THE INVESTIGATION IS COMPLETE, WHICHEVER HAPPENS FIRST.</t>
-  </si>
-  <si>
-    <t>BUTANE/HYDROCARBONS</t>
-  </si>
-  <si>
-    <t>SEE NARRATIVE IN PART G OF THIS REPORT.</t>
-  </si>
-  <si>
-    <t>Corpus Christi Liquefaction, LLC.</t>
-  </si>
-  <si>
-    <t>493579</t>
-  </si>
-  <si>
-    <t>483837.05386490501052</t>
-  </si>
-  <si>
-    <t>493603</t>
-  </si>
-  <si>
-    <t>204443.539304293817618429111531190926276</t>
-  </si>
-  <si>
-    <t>483861.05386490501052</t>
-  </si>
-  <si>
-    <t>MARINE FLARE NOT UTILIZED FOR LOADING WARM VESSEL WITH HIGH C2+ CONCENTRATION.</t>
-  </si>
-  <si>
-    <t>CRAIG KONDOFF</t>
-  </si>
-  <si>
-    <t>craig.kondoff@cheniere.com</t>
-  </si>
-  <si>
-    <t>361-977-1373</t>
-  </si>
-  <si>
-    <t>JAMES MCKEIVIER</t>
-  </si>
-  <si>
-    <t>DIRECTOR HSE REGULATORY COMPLIANCE</t>
-  </si>
-  <si>
-    <t>713-375-5204</t>
-  </si>
-  <si>
-    <t>james.mckeivier@cheniere.com</t>
-  </si>
-  <si>
-    <t>WHILE PERFORMING MAINTENANCE TO THE BOIL-OFF GAS COMPRESSOR A (BOG A) 2/10/2024 AT 12:50 AM SITE PERSONNEL OBSERVED A GAS AND LIQUID HYDROCARBON RELEASE FROM THE BOG A S2 VENT. THE BOG A S2 VENT IS A COMPRESSOR SEAL ATMOSPHERIC VENT. FIELD PERSONNEL COMMUNICATED TO THE CONTROL ROOM AND EVACUATED THE BOG A AREA. NO INJURIES OCCURRED, AND ALL PERSONNEL WERE ACCOUNTED FOR. THERE WAS NO EQUIPMENT OR PROPERTY DAMAGE RESULTING FROM OR AS A CONSEQUENCE OF THE GAS RELEASE. THE BOG A SYSTEM WAS THEN CONNECTED VIA TEMPORARY HOSE TO THE FLARE LINE TO DEPRESSURE AND CLEAR ANY RESIDUAL HYDROCARBONS.    PRIOR TO THE EVENT, ON 02/05/2024, A WARM LIQUEFIED NATURAL GAS (LNG) VESSEL WAS REQUIRED TO BE COOLED FOR LNG LOADING. THE RESULTANT "HEAVIER" VAPOR (CONTAINING BUTANE, PROPANE, PENTANES AND C6+ COMPONENTS) FROM THE VESSEL COOLDOWN WAS ROUTED TO THE LNG TANKS AND BOIL-OFF GAS (BOG) COMPRESSORS. AS THE LNG TANKS CONTINUED RECEIVING WARM VAPOR, BOG TEMPERATURES IN LNG TANK C STARTED TO RISE. THE MIXING OF WARMER BOG FROM TANK C AND COLDER BOG FROM TANKS A AND B RESULTED IN VAPOR CONDENSATION AT THE BOG SUCTION LINE, CAUSING LIQUID ACCUMULATION IN THE BOG A SUCTION PIPING. LIQUID REMAINED IN BOG A SUCTION PIPING UNTIL THE ATTEMPTED STARTUP ON 02/09/2024, WHICH HAD BEEN SHUT DOWN SINCE 01/28/2024 FOR MAINTENANCE PURPOSES, BEFORE VAPORIZING AND RELEASING TO THE ATMOSPHERE. STARTUP PROCEDURES WERE FOLLOWED BUT THEY DID NOT ACCOUNT FOR THE POTENTIAL PRESENCE OF LIQUID IN THE GAS LINE. INITIAL CORRECTIVE ACTION WAS TO MODIFY THE LOADING PROCEDURE TO SEND WARM BOG FROM VESSEL COOLDOWNS INITIALLY.    AN NRC TELEPHONIC REPORT WAS FILED UNDER NRC REPORT # 1391284.  NRC REPORT #1391385 WAS FILED FOR 48-HOUR REPORT.</t>
-  </si>
-  <si>
     <t>LNG SENDOUT PUMP WAS SHUT DOWN BUT NOT THE LNG FACILITY.</t>
   </si>
   <si>
@@ -3694,6 +3694,66 @@
   </si>
   <si>
     <t>ON JULY 16, 2024, AT 9:30AM, KENAN ADVANTAGE GROUP TRUCK AND LNG TRAILER ARRIVED AT THE REXBURG LNG FACILITY. IGC VAPORIZATION TECHNICIANS (VAP TECH) BEGAN PREPARATION FOR OFFLOAD. THE LNG TRAILER PRESSURE WAS INCREASED TO APPROXIMATELY 60 PSIG, THE TRANSFER HOSE WAS CONNECTED TO THE LNG TRAILER, THE PURGE VALVE AT THE TRUCK OFFLOADING SKID WAS OPENED AND THE HOSE WAS PURGED.     AT 10:10AM, THE VAP TECH SLIGHTLY OPENED THE LNG TRAILER FILL AND DRAIN VALVE. VAPOR AND LNG BEGAN TO RELEASE FROM THE VENT STACK AT THE BACK OF THE LNG TRAILER. THE VAP TECH IMMEDIATELY LEFT THE HAZARDOUS AREA AND ATTEMPTED TO RELIEVE PRESSURE FROM THE LNG TRAILER, AS IT WAS INITIALLY BELIEVED THE LNG WAS BEING RELEASED FROM THE LNG TRAILER RELIEF VALVE. THE EMERGENCY SHUTDOWN (ESD) AT THE BACK OF THE LNG TRAILER WAS IN THE HAZARDOUS AREA AND NOT ACCESSIBLE.     AT 10:15AM, A LOCAL METHANE DETECTOR AT THE OFFLOADING SKID ALARMED AND INITIATED AN EMERGENCY SHUTDOWN.    AT 10:35AM, THE VAP TECH PUSHED A SECONDARY ESD, LOCATED NEAR THE FRONT OF THE TRAILER, TO CLOSE THE FIRE BLOCKS ON THE LNG TRAILER. THE FIRE BLOCKS DID NOT SHUT OFF AND STOP THE RELEASE OF LNG RESULTING IN THE LNG FLOWING INTO THE CONCRETE SPILL PIT AT THE FACILITY.     AT 10:45AM, THE FIRE DEPARTMENT ARRIVED ONSITE, AND EVACUATIONS BEGAN AT 11:30AM. SEVENTEEN (17) RESIDENTIAL BUILDINGS (APPROXIMATELY 30 PEOPLE) WERE EVACUATED. THE VAP TECHS CONTINUED TO MONITOR THE ATMOSPHERE WITH GAS DETECTORS FROM A SAFE DISTANCE.     AT 2:54PM, THE AREA WAS DEEMED SAFE, AND THE VAP TECHS SHUT IN THE SYSTEM.    AT 3:30PM, THE EVACUATIONS WERE LIFTED.      AT 4:47PM, THE REXBURG LNG FACILITY WAS RETURNED TO NORMAL OPERATION.     UPON INCIDENT INVESTIGATION, IT WAS DISCOVERED WHEN THE FILL AND DRAIN VALVE WAS SLIGHTLY OPENED, THE LNG FLOWED THROUGH THE FILL LINE BLEED VALVE ON THE LNG TRAILER, INTO THE VENT PIPING, AND SPRAYED OUT OF THE VENT STACK. THE FILL LINE BLEED SHOULD HAVE BEEN VERIFIED TO BE CLOSED BEFORE OPENING THE FILL AND DRAIN VALVE. IT WAS ALSO DISCOVERED THAT THE SECONDARY FAILURE OF THE FIRE BLOCK VALVE NOT CLOSING CAUSED THE LNG TO CONTINUE TO RELEASE INTO THE CONCRETE SPILL PIT.    AUGUST 22, 2024, UPDATED PART A QUESTION 7 INCIDENT RESULTED FROM: UNINTENTIONAL RELEASE OF COMMODITY AND EMERGENCY SHUTDOWN. UPDATED PART A QUESTION 11 ESTIMATED VOLUME OF LIQUID SPILLED TO THE GROUND (BARRELS): 212.74. PLEASE NOTE, THERE WAS NO GROUND CONTAMINATION. THE LNG WAS CONTAINED IN THE SPILL PIT AND DID NOT ABSORB INTO THE SOIL.</t>
+  </si>
+  <si>
+    <t>WISCONSIN GAS LLC DBA WE ENERGIES</t>
+  </si>
+  <si>
+    <t>8828 NORTH RD</t>
+  </si>
+  <si>
+    <t>IXONIA</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>53036</t>
+  </si>
+  <si>
+    <t>Ixonia LNG Plant</t>
+  </si>
+  <si>
+    <t>2921</t>
+  </si>
+  <si>
+    <t>2863.34717307540948</t>
+  </si>
+  <si>
+    <t>2955</t>
+  </si>
+  <si>
+    <t>1235.178118895669322024574669187145557656</t>
+  </si>
+  <si>
+    <t>2897.34717307540948</t>
+  </si>
+  <si>
+    <t>FLANGED GASKET FAILURE</t>
+  </si>
+  <si>
+    <t>FENG YANG</t>
+  </si>
+  <si>
+    <t>feng.yang@we-energies.com</t>
+  </si>
+  <si>
+    <t>414-793-4865</t>
+  </si>
+  <si>
+    <t>TIM STROMMEN</t>
+  </si>
+  <si>
+    <t>MANAGER GAS CODE COMPLIANCE</t>
+  </si>
+  <si>
+    <t>414-221-5173</t>
+  </si>
+  <si>
+    <t>tim.strommen@we-energies.com</t>
+  </si>
+  <si>
+    <t>AT 20:20 ON FRIDAY, OCTOBER 4TH, 2024, A NATURAL GAS RELEASE OCCURRED AT THE IXONIA LNG FACILITY WHICH RESULTED IN THE NRC INCIDENT REPORT.   THE RELEASE DID NOT RESULT IN ANY INJURIES, FATALITIES, GAS RELEASE IN EXCESS OF 3MMSCF, OR MEETING THE DAMAGE COST THRESHOLD; HOWEVER, DUE TO AUTOMATED EMERGENCY SHUTDOWN (ESD) VALVES ISOLATING PART OF THE FACILITY, THE INCIDENT WAS REPORTED.     UPON INVESTIGATION, THE GAS LEAK OCCURRED DUE TO A FAILED INSULATING GASKET ON A 3/4' DRAIN VALVE LOCATED ON THE REGEN GAS HEATER INLET LINE.  AN INSULATING FLANGE KIT WAS INSTALLED BETWEEN THE CARBON STEEL MAIN PIPE AND THE STAINLESS STEEL DRAIN VALVE DUE TO THE DISSIMILAR METALS.  THE GASKET THAT IS PART OF THIS INSULATING FLANGE KIT FAILED DUE TO IT NOT BEING RATED FOR THE ELEVATED TEMPERATURES OF THE APPLICATION, RESULTING IN THE GAS LEAK AND SUBSEQUENT ESD.      THE FAILED GASKET IS PART OF A REGEN GAS HEATER INLET LINE THAT WAS RECENTLY MODIFIED BY THE EPC CONTRACTOR FOR THE SITE.  DUE TO DELIVERY DELAYS IN THE INITIALLY DESIGNED VALVE/GASKET, A MATERIAL CHANGE WAS INITIATED.  IN THE PROCUREMENT PROCESS FOR THIS CHANGE, COMPLETE OPERATING CHARACTERISTICS WERE NOT PROPERLY COMMUNICATED AND OVERSIGHT PROTOCOLS WERE NOT FOLLOWED.       CORRECTIVE MEASURES HAVE BEEN IMPLEMENTED TO ENSURE SAFE OPERATION OF THE LNG FACILITY AND TO PREVENT A FUTURE OCCURRENCE. THESE MEASURES INCLUDE INSTALLATION OF PROPERLY RATED GASKETS FOR THIS SYSTEM, CONDUCTING A REVIEW OF SIMILAR APPLICATIONS WITH ELEVATED TEMPERATURE PIPING AND CONNECTED COMPONENTS, ENSURING ENGINEERING DESIGNS INCLUDES A COMPLETE MATERIALS LIST, AND MATERIALS CONFORM TO SPECIFICATIONS PRIOR TO INSTALLATION.     IXONIA LNG STARTUP HAS BEEN DELAYED BY UNRELATED ISSUES. THE PLAN REMAINS TO STARTUP LIQUEFACTION IN PREPARATION FOR THE HEATING SEASON.</t>
   </si>
 </sst>
 </file>
@@ -4126,7 +4186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379FB4F-0336-4067-97BD-34DCB9779345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7324C73-C0C1-46B9-8706-9355CEA47536}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:D225"/>
   <sheetViews>
@@ -7297,8 +7357,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25826C6-A364-4341-A3BD-6BE0B4083340}">
-  <dimension ref="A1:HO45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12721ED-D01C-4FC4-AE66-187E7550B936}">
+  <dimension ref="A1:HO46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -7309,49 +7369,49 @@
   <cols>
     <col min="1" max="1" width="13.36328125" style="12" customWidth="1"/>
     <col min="2" max="3" width="8.7265625" style="12"/>
-    <col min="4" max="5" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="12" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="12"/>
-    <col min="8" max="8" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="12" customWidth="1"/>
     <col min="9" max="12" width="8.7265625" style="12"/>
     <col min="13" max="13" width="8.7265625" style="13"/>
-    <col min="14" max="14" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" style="12" customWidth="1"/>
     <col min="15" max="16" width="8.7265625" style="12"/>
-    <col min="17" max="17" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1796875" style="12" customWidth="1"/>
+    <col min="18" max="19" width="8.81640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.1796875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="12" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="12"/>
-    <col min="29" max="31" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="8.81640625" style="12" customWidth="1"/>
     <col min="32" max="32" width="8.7265625" style="12"/>
-    <col min="33" max="37" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="8.81640625" style="12" customWidth="1"/>
     <col min="38" max="38" width="8.7265625" style="12"/>
-    <col min="39" max="43" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="43" width="8.81640625" style="12" customWidth="1"/>
     <col min="44" max="45" width="8.7265625" style="12"/>
-    <col min="46" max="47" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="14.1796875" style="12" customWidth="1"/>
     <col min="48" max="49" width="8.7265625" style="12"/>
-    <col min="50" max="50" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.81640625" style="12" customWidth="1"/>
     <col min="51" max="51" width="8.7265625" style="12"/>
-    <col min="52" max="57" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="57" width="8.81640625" style="12" customWidth="1"/>
     <col min="58" max="58" width="8.7265625" style="12"/>
-    <col min="59" max="59" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.81640625" style="12" customWidth="1"/>
     <col min="60" max="60" width="8.7265625" style="12"/>
     <col min="61" max="62" width="8.7265625" style="13"/>
     <col min="63" max="63" width="8.7265625" style="12"/>
-    <col min="64" max="66" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.81640625" style="12" customWidth="1"/>
     <col min="67" max="71" width="8.7265625" style="12"/>
-    <col min="72" max="73" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="8.81640625" style="12" customWidth="1"/>
     <col min="74" max="93" width="8.7265625" style="12"/>
     <col min="94" max="101" width="8.7265625" style="13"/>
-    <col min="102" max="104" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="102" max="104" width="8.81640625" style="12" customWidth="1"/>
     <col min="105" max="109" width="8.7265625" style="13"/>
     <col min="110" max="115" width="8.7265625" style="12"/>
-    <col min="116" max="117" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="8.81640625" style="12" customWidth="1"/>
     <col min="118" max="132" width="8.7265625" style="12"/>
     <col min="133" max="134" width="8.7265625" style="13"/>
     <col min="135" max="215" width="8.7265625" style="12"/>
     <col min="216" max="217" width="8.7265625" style="13"/>
-    <col min="218" max="218" width="9.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="9.54296875" style="12" customWidth="1"/>
     <col min="219" max="220" width="8.7265625" style="12"/>
     <col min="221" max="221" width="8.7265625" style="13"/>
     <col min="222" max="16384" width="8.7265625" style="12"/>
@@ -8030,7 +8090,7 @@
     </row>
     <row r="2" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>466</v>
@@ -8311,7 +8371,7 @@
     </row>
     <row r="3" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>466</v>
@@ -8571,7 +8631,7 @@
     </row>
     <row r="4" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>473</v>
@@ -8858,7 +8918,7 @@
     </row>
     <row r="5" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>466</v>
@@ -9136,7 +9196,7 @@
     </row>
     <row r="6" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>473</v>
@@ -9405,7 +9465,7 @@
     </row>
     <row r="7" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>466</v>
@@ -9677,7 +9737,7 @@
     </row>
     <row r="8" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>466</v>
@@ -9934,7 +9994,7 @@
     </row>
     <row r="9" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>466</v>
@@ -10206,7 +10266,7 @@
     </row>
     <row r="10" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>466</v>
@@ -10472,7 +10532,7 @@
     </row>
     <row r="11" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>473</v>
@@ -10732,7 +10792,7 @@
     </row>
     <row r="12" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>473</v>
@@ -11010,7 +11070,7 @@
     </row>
     <row r="13" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>466</v>
@@ -11285,7 +11345,7 @@
     </row>
     <row r="14" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>473</v>
@@ -11566,7 +11626,7 @@
     </row>
     <row r="15" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>466</v>
@@ -11829,7 +11889,7 @@
     </row>
     <row r="16" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>466</v>
@@ -12098,7 +12158,7 @@
     </row>
     <row r="17" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>466</v>
@@ -12370,7 +12430,7 @@
     </row>
     <row r="18" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>466</v>
@@ -12636,7 +12696,7 @@
     </row>
     <row r="19" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>473</v>
@@ -12905,7 +12965,7 @@
     </row>
     <row r="20" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>473</v>
@@ -13180,7 +13240,7 @@
     </row>
     <row r="21" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>466</v>
@@ -13446,7 +13506,7 @@
     </row>
     <row r="22" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>473</v>
@@ -13715,7 +13775,7 @@
     </row>
     <row r="23" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>473</v>
@@ -14011,7 +14071,7 @@
     </row>
     <row r="24" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>466</v>
@@ -14307,7 +14367,7 @@
     </row>
     <row r="25" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>466</v>
@@ -14591,7 +14651,7 @@
     </row>
     <row r="26" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>473</v>
@@ -14869,7 +14929,7 @@
     </row>
     <row r="27" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>466</v>
@@ -15156,7 +15216,7 @@
     </row>
     <row r="28" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>466</v>
@@ -15443,7 +15503,7 @@
     </row>
     <row r="29" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>466</v>
@@ -15724,7 +15784,7 @@
     </row>
     <row r="30" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>466</v>
@@ -16014,7 +16074,7 @@
     </row>
     <row r="31" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>466</v>
@@ -16292,7 +16352,7 @@
     </row>
     <row r="32" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>466</v>
@@ -16591,7 +16651,7 @@
     </row>
     <row r="33" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>466</v>
@@ -16875,7 +16935,7 @@
     </row>
     <row r="34" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>473</v>
@@ -17189,7 +17249,7 @@
     </row>
     <row r="35" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>466</v>
@@ -17473,7 +17533,7 @@
     </row>
     <row r="36" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>466</v>
@@ -17757,7 +17817,7 @@
     </row>
     <row r="37" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>466</v>
@@ -18044,7 +18104,7 @@
     </row>
     <row r="38" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>473</v>
@@ -18334,7 +18394,7 @@
     </row>
     <row r="39" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>473</v>
@@ -18648,7 +18708,7 @@
     </row>
     <row r="40" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>466</v>
@@ -18944,7 +19004,7 @@
     </row>
     <row r="41" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>466</v>
@@ -19225,7 +19285,7 @@
     </row>
     <row r="42" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>466</v>
@@ -19237,31 +19297,31 @@
         <v>20240002</v>
       </c>
       <c r="E42" s="12">
-        <v>39081</v>
+        <v>39986</v>
       </c>
       <c r="F42" s="14">
         <v>45308.375393518516</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>1164</v>
+        <v>467</v>
       </c>
       <c r="H42" s="12">
         <v>13730</v>
       </c>
       <c r="I42" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>1165</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>1166</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>1167</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>841</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N42" s="15">
         <v>45279.479166666664</v>
@@ -19348,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="BG42" s="12">
         <v>1</v>
@@ -19399,43 +19459,43 @@
         <v>484</v>
       </c>
       <c r="CR42" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="CS42" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="CT42" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CU42" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CV42" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CW42" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CY42" s="12">
+        <v>0</v>
+      </c>
+      <c r="CZ42" s="12">
+        <v>0</v>
+      </c>
+      <c r="DA42" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DB42" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DC42" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="DD42" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="CS42" s="13" t="s">
-        <v>1170</v>
-      </c>
-      <c r="CT42" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="CU42" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="CV42" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="CW42" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="CY42" s="12">
-        <v>0</v>
-      </c>
-      <c r="CZ42" s="12">
-        <v>0</v>
-      </c>
-      <c r="DA42" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="DB42" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="DC42" s="13" t="s">
-        <v>1170</v>
-      </c>
-      <c r="DD42" s="13" t="s">
-        <v>1171</v>
-      </c>
       <c r="DE42" s="13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="DF42" s="12" t="s">
         <v>473</v>
@@ -19471,48 +19531,48 @@
         <v>490</v>
       </c>
       <c r="EY42" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EZ42" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="FA42" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="HE42" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="EZ42" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="FA42" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="HE42" s="12" t="s">
+      <c r="HF42" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="HF42" s="12" t="s">
+      <c r="HG42" s="12" t="s">
         <v>1174</v>
       </c>
-      <c r="HG42" s="12" t="s">
+      <c r="HH42" s="13" t="s">
         <v>1175</v>
       </c>
-      <c r="HH42" s="13" t="s">
+      <c r="HJ42" s="14">
+        <v>45546</v>
+      </c>
+      <c r="HK42" s="12" t="s">
+        <v>1172</v>
+      </c>
+      <c r="HL42" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="HM42" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="HN42" s="12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="HO42" s="12" t="s">
         <v>1176</v>
-      </c>
-      <c r="HJ42" s="14">
-        <v>45308</v>
-      </c>
-      <c r="HK42" s="12" t="s">
-        <v>1173</v>
-      </c>
-      <c r="HL42" s="12" t="s">
-        <v>1174</v>
-      </c>
-      <c r="HM42" s="13" t="s">
-        <v>1176</v>
-      </c>
-      <c r="HN42" s="12" t="s">
-        <v>1175</v>
-      </c>
-      <c r="HO42" s="12" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="43" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>473</v>
@@ -19590,7 +19650,7 @@
         <v>474</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AC43" s="12">
         <v>0.88</v>
@@ -19617,31 +19677,31 @@
         <v>466</v>
       </c>
       <c r="AS43" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AW43" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF43" s="12" t="s">
         <v>1179</v>
-      </c>
-      <c r="AW43" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="AZ43" s="12">
-        <v>0</v>
-      </c>
-      <c r="BA43" s="12">
-        <v>0</v>
-      </c>
-      <c r="BB43" s="12">
-        <v>0</v>
-      </c>
-      <c r="BC43" s="12">
-        <v>0</v>
-      </c>
-      <c r="BD43" s="12">
-        <v>0</v>
-      </c>
-      <c r="BE43" s="12">
-        <v>0</v>
-      </c>
-      <c r="BF43" s="12" t="s">
-        <v>1180</v>
       </c>
       <c r="BH43" s="12" t="s">
         <v>478</v>
@@ -19695,10 +19755,10 @@
         <v>484</v>
       </c>
       <c r="CR43" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="CS43" s="13" t="s">
         <v>1181</v>
-      </c>
-      <c r="CS43" s="13" t="s">
-        <v>1182</v>
       </c>
       <c r="CT43" s="13" t="s">
         <v>484</v>
@@ -19725,13 +19785,13 @@
         <v>484</v>
       </c>
       <c r="DC43" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="DD43" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="DD43" s="13" t="s">
+      <c r="DE43" s="13" t="s">
         <v>1184</v>
-      </c>
-      <c r="DE43" s="13" t="s">
-        <v>1185</v>
       </c>
       <c r="DF43" s="12" t="s">
         <v>473</v>
@@ -19767,45 +19827,45 @@
         <v>712</v>
       </c>
       <c r="FJ43" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="HB43" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE43" s="12" t="s">
         <v>1186</v>
-      </c>
-      <c r="HB43" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="HE43" s="12" t="s">
-        <v>1187</v>
       </c>
       <c r="HF43" s="12" t="s">
         <v>1126</v>
       </c>
       <c r="HG43" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="HH43" s="13" t="s">
         <v>1188</v>
-      </c>
-      <c r="HH43" s="13" t="s">
-        <v>1189</v>
       </c>
       <c r="HJ43" s="14">
         <v>45520</v>
       </c>
       <c r="HK43" s="12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="HL43" s="12" t="s">
         <v>1190</v>
       </c>
-      <c r="HL43" s="12" t="s">
+      <c r="HM43" s="13" t="s">
         <v>1191</v>
       </c>
-      <c r="HM43" s="13" t="s">
+      <c r="HN43" s="12" t="s">
         <v>1192</v>
       </c>
-      <c r="HN43" s="12" t="s">
+      <c r="HO43" s="12" t="s">
         <v>1193</v>
-      </c>
-      <c r="HO43" s="12" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="44" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>466</v>
@@ -19823,7 +19883,7 @@
         <v>45517.493113425924</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>1164</v>
+        <v>1194</v>
       </c>
       <c r="H44" s="12">
         <v>32561</v>
@@ -20107,7 +20167,7 @@
     </row>
     <row r="45" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
-        <v>45534.492673611108</v>
+        <v>45625.417974537035</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>466</v>
@@ -20393,6 +20453,302 @@
       </c>
       <c r="HO45" s="12" t="s">
         <v>1217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>45625.417974537035</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D46" s="12">
+        <v>20240006</v>
+      </c>
+      <c r="E46" s="12">
+        <v>40215</v>
+      </c>
+      <c r="F46" s="14">
+        <v>45597.446273148147</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H46" s="12">
+        <v>22763</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N46" s="15">
+        <v>45569.847222222219</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>45569.910416666666</v>
+      </c>
+      <c r="R46" s="12">
+        <v>2024</v>
+      </c>
+      <c r="S46" s="12">
+        <v>1412922</v>
+      </c>
+      <c r="T46" s="15">
+        <v>45570.536111111112</v>
+      </c>
+      <c r="U46" s="12">
+        <v>1413070</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="W46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="X46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>15</v>
+      </c>
+      <c r="AD46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AK46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT46" s="15">
+        <v>45569.847222222219</v>
+      </c>
+      <c r="AV46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="AW46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ46" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC46" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE46" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF46" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="BH46" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="BK46" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="BL46" s="12">
+        <v>7</v>
+      </c>
+      <c r="BM46" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN46" s="12">
+        <v>7</v>
+      </c>
+      <c r="BO46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="BR46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="BS46" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="BT46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU46" s="12">
+        <v>129000</v>
+      </c>
+      <c r="BW46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CG46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CH46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="CN46" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="CP46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CQ46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CR46" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="CS46" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="CT46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CU46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CV46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CW46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="CY46" s="12">
+        <v>34</v>
+      </c>
+      <c r="CZ46" s="12">
+        <v>34</v>
+      </c>
+      <c r="DA46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DB46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="DC46" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="DD46" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="DE46" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="DF46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DG46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DH46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="DI46" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="DK46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="DN46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="DQ46" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="DR46" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="DS46" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="DT46" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="EX46" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="EY46" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="EZ46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="FA46" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="HA46" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE46" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="HF46" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="HG46" s="12" t="s">
+        <v>1231</v>
+      </c>
+      <c r="HH46" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="HJ46" s="14">
+        <v>45609</v>
+      </c>
+      <c r="HK46" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="HL46" s="12" t="s">
+        <v>1234</v>
+      </c>
+      <c r="HM46" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="HN46" s="12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="HO46" s="12" t="s">
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/phmsa-clean/lng2011toPresent.xlsx
+++ b/phmsa-clean/lng2011toPresent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Pipeline Metrics Reporting\Ongoing Tasks and Work Instructions\Web Update\5-Significant Incident Data Files\SaveExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AE6F5F-3F5F-4CA7-B00F-BDCA241F383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7978B1A1-A62F-496E-8C95-53A87827A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="18380" windowHeight="9750" activeTab="1" xr2:uid="{1257DFA6-D18B-4509-B377-1B1D5B4973D3}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18100" windowHeight="9750" activeTab="1" xr2:uid="{D3042B41-2A1B-4534-ABCD-F5BCCCE78502}"/>
   </bookViews>
   <sheets>
     <sheet name="lng2011toPresentFields" sheetId="2" r:id="rId1"/>
@@ -4186,7 +4186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7324C73-C0C1-46B9-8706-9355CEA47536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05923A68-193B-4924-8EC6-DFE38FC077D1}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:D225"/>
   <sheetViews>
@@ -7357,7 +7357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12721ED-D01C-4FC4-AE66-187E7550B936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F5D39-2386-4423-B864-0873CDCFB218}">
   <dimension ref="A1:HO46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -8090,7 +8090,7 @@
     </row>
     <row r="2" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>466</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="3" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>466</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="4" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>473</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="5" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>466</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="6" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>473</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="7" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>466</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="8" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>466</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="9" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>466</v>
@@ -10266,7 +10266,7 @@
     </row>
     <row r="10" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>466</v>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="11" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>473</v>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="12" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>473</v>
@@ -11070,7 +11070,7 @@
     </row>
     <row r="13" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>466</v>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="14" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>473</v>
@@ -11626,7 +11626,7 @@
     </row>
     <row r="15" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>466</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="16" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>466</v>
@@ -12158,7 +12158,7 @@
     </row>
     <row r="17" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>466</v>
@@ -12430,7 +12430,7 @@
     </row>
     <row r="18" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>466</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="19" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>473</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="20" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>473</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="21" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>466</v>
@@ -13506,7 +13506,7 @@
     </row>
     <row r="22" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>473</v>
@@ -13775,7 +13775,7 @@
     </row>
     <row r="23" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>473</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="24" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>466</v>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="25" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>466</v>
@@ -14651,7 +14651,7 @@
     </row>
     <row r="26" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>473</v>
@@ -14929,7 +14929,7 @@
     </row>
     <row r="27" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>466</v>
@@ -15216,7 +15216,7 @@
     </row>
     <row r="28" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>466</v>
@@ -15503,7 +15503,7 @@
     </row>
     <row r="29" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>466</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="30" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>466</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="31" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>466</v>
@@ -16352,7 +16352,7 @@
     </row>
     <row r="32" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>466</v>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="33" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>466</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="34" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>473</v>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="35" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>466</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="36" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>466</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="37" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>466</v>
@@ -18104,7 +18104,7 @@
     </row>
     <row r="38" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>473</v>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="39" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>473</v>
@@ -18708,7 +18708,7 @@
     </row>
     <row r="40" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>466</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="41" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>466</v>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="42" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>466</v>
@@ -19572,7 +19572,7 @@
     </row>
     <row r="43" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>473</v>
@@ -19865,7 +19865,7 @@
     </row>
     <row r="44" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>466</v>
@@ -20167,7 +20167,7 @@
     </row>
     <row r="45" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>466</v>
@@ -20457,7 +20457,7 @@
     </row>
     <row r="46" spans="1:223" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
-        <v>45625.417974537035</v>
+        <v>45657.415347222224</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>466</v>
